--- a/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
+++ b/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
+++ b/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
+++ b/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,6 +358,12 @@
     <t>Value of extension</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSPertinenciaInterconsulta</t>
+  </si>
+  <si>
     <t>Extension.value[x]:valueCodeableConcept.id</t>
   </si>
   <si>
@@ -485,12 +491,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSPertinenciaInterconsulta</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1627,13 +1627,11 @@
         <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>73</v>
@@ -1671,10 +1669,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1774,14 +1772,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1803,13 +1801,13 @@
         <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1879,10 +1877,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1905,19 +1903,19 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -1966,7 +1964,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1981,15 +1979,15 @@
         <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2089,14 +2087,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2118,13 +2116,13 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2194,10 +2192,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2223,16 +2221,16 @@
         <v>95</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2281,7 +2279,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2296,15 +2294,15 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2330,13 +2328,13 @@
         <v>80</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2386,7 +2384,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2401,15 +2399,15 @@
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2432,17 +2430,17 @@
         <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -2467,11 +2465,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>

--- a/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
+++ b/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
+++ b/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -898,42 +898,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.3359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
+++ b/docs/StructureDefinition-MotivoNoPertinenciaCodigo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSPertinenciaInterconsulta</t>
+    <t>http://minsal.cl/listaespera/ValueSet/VSMotivoNoPertinenciaCodigo</t>
   </si>
   <si>
     <t>Extension.value[x]:valueCodeableConcept.id</t>
@@ -923,7 +923,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.6328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
